--- a/biology/Botanique/Steppe/Steppe.xlsx
+++ b/biology/Botanique/Steppe/Steppe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une steppe (du russe : степь, step) désigne en biogéographie plusieurs types de formations végétales composées d'étendues d'herbes dépourvues d'arbres, pouvant être denses ou clairsemées, sous des latitudes diverses (tempérées à tropicales).
-Le nom de « steppe » provient du russe : степь (step), qui désigne la steppe eurasienne, un écosystème de prairie tempérée en Eurasie centrale. Le terme a été repris pour désigner d'autres formations végétales dans le monde qui sont diverses et parfois plus arides[1] :
+Le nom de « steppe » provient du russe : степь (step), qui désigne la steppe eurasienne, un écosystème de prairie tempérée en Eurasie centrale. Le terme a été repris pour désigner d'autres formations végétales dans le monde qui sont diverses et parfois plus arides :
 des steppes froides, telles que la steppe à armoise aux États-Unis ou la steppe patagonienne ;
 des steppes subtropicales, telles que la steppe nord-africaine, la Mésopotamie, le veld sud-africain ou l'arrière-pays australien.
 </t>
